--- a/Base.csv.xlsx
+++ b/Base.csv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivann\Mean-Reversion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B618B755-F19F-4EFB-97A9-082A79491D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041E3B38-9B52-4697-9668-A5A7C96DFC12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{E08384DF-6AC7-4330-B9CA-A4BD3E1D8955}"/>
   </bookViews>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4F0C1A-F43F-4094-866E-A8226EAB98E8}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,10 +975,6 @@
         <f>IF(C4&gt;E3, 1, 0)</f>
         <v>1</v>
       </c>
-      <c r="G4">
-        <f>IF(F4=1, C5-C4, 0)</f>
-        <v>0.88518934397200155</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
@@ -1003,8 +999,8 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G68" si="3">IF(F5=1, C6-C5, 0)</f>
-        <v>-2.2278922814579971</v>
+        <f>F4*(1+D5)</f>
+        <v>1.0036284362127503</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1030,8 +1026,8 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="G6:G69" si="3">F5*(1+D6)</f>
+        <v>0.99084250172191446</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1085,7 +1081,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>3.0633518870049841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1112,7 +1108,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>1.342702937486024</v>
+        <v>1.0125388387626755</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1139,7 +1135,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="3"/>
-        <v>7.5191364499209783</v>
+        <v>1.0054467464345729</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1166,7 +1162,7 @@
       </c>
       <c r="G11">
         <f t="shared" si="3"/>
-        <v>3.0036762008950006</v>
+        <v>1.0299653825997837</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1193,7 +1189,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="3"/>
-        <v>-2.2179463337729999</v>
+        <v>1.0117237367643597</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1220,7 +1216,7 @@
       </c>
       <c r="G13">
         <f t="shared" si="3"/>
-        <v>0.12929731990601567</v>
+        <v>0.99135636782095471</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1247,7 +1243,7 @@
       </c>
       <c r="G14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.0005059448628035</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1301,7 +1297,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="3"/>
-        <v>1.2730813036909865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -1328,7 +1324,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="3"/>
-        <v>1.5515678388720175</v>
+        <v>1.004982881689652</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1355,7 +1351,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="3"/>
-        <v>5.8880010295679881</v>
+        <v>1.0060395073241617</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -1382,7 +1378,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="3"/>
-        <v>1.3924326759120049</v>
+        <v>1.0225929316715066</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1409,7 +1405,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="3"/>
-        <v>4.9431359994849799</v>
+        <v>1.005269112680014</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
@@ -1436,7 +1432,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="3"/>
-        <v>0.86529744860200708</v>
+        <v>1.0184842646734014</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1463,7 +1459,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="3"/>
-        <v>-4.6845413596730054</v>
+        <v>1.0032008268530141</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1490,7 +1486,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.9825476793878325</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1517,7 +1513,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="3"/>
-        <v>2.8544869856190189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1544,7 +1540,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="3"/>
-        <v>-4.4856224059720375</v>
+        <v>1.0101459111609676</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1571,7 +1567,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="3"/>
-        <v>2.3472436536790156</v>
+        <v>0.98400987008116569</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1598,7 +1594,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="3"/>
-        <v>4.3065953476399841</v>
+        <v>1.0083992236964159</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -1625,7 +1621,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="3"/>
-        <v>0.22875679675701122</v>
+        <v>1.0152293456038759</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
@@ -1652,7 +1648,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="3"/>
-        <v>1.6410813680379874</v>
+        <v>1.0008024982548935</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -1679,7 +1675,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="3"/>
-        <v>1.0443245069340037</v>
+        <v>1.0057382480221424</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
@@ -1706,7 +1702,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="3"/>
-        <v>4.4259467198610309</v>
+        <v>1.003634542501139</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1733,7 +1729,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
-        <v>-4.386162929121042</v>
+        <v>1.0152585723690661</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1760,7 +1756,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.98487962553054409</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1895,7 +1891,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="3"/>
-        <v>-4.7541629934689809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1922,7 +1918,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.98282757053862202</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1949,7 +1945,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="3"/>
-        <v>2.3571896013640412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1976,7 +1972,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="3"/>
-        <v>-1.5913516296130297</v>
+        <v>1.0083904692757635</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2003,7 +1999,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="3"/>
-        <v>5.4304874360540225</v>
+        <v>0.99434327641340836</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2030,7 +2026,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="3"/>
-        <v>-2.4964328689550257</v>
+        <v>1.0191732820552142</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2057,7 +2053,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="3"/>
-        <v>22.338598500692001</v>
+        <v>0.9912315380274519</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2084,7 +2080,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="3"/>
-        <v>5.5995685467000271</v>
+        <v>1.0758558172158033</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2111,7 +2107,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="3"/>
-        <v>-0.51718927962400585</v>
+        <v>1.0181456916601164</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2138,7 +2134,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="3"/>
-        <v>-4.3364331906950042</v>
+        <v>0.99833775494763177</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2165,7 +2161,7 @@
       </c>
       <c r="G48">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.98595292473077389</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2300,7 +2296,7 @@
       </c>
       <c r="G53">
         <f t="shared" si="3"/>
-        <v>5.6194604420709879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2327,7 +2323,7 @@
       </c>
       <c r="G54">
         <f t="shared" si="3"/>
-        <v>-6.0073524017889781</v>
+        <v>1.0182501552632477</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2354,7 +2350,7 @@
       </c>
       <c r="G55">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.98047772518168674</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2381,7 +2377,7 @@
       </c>
       <c r="G56">
         <f t="shared" si="3"/>
-        <v>4.5900000000000318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2408,7 +2404,7 @@
       </c>
       <c r="G57">
         <f t="shared" si="3"/>
-        <v>1.2599999999999909</v>
+        <v>1.0147389679470784</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2435,7 +2431,7 @@
       </c>
       <c r="G58">
         <f t="shared" si="3"/>
-        <v>-10.120000000000005</v>
+        <v>1.0040082764019687</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2462,7 +2458,7 @@
       </c>
       <c r="G59">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.96734351008726094</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2624,7 +2620,7 @@
       </c>
       <c r="G65">
         <f t="shared" si="3"/>
-        <v>6.6800000000000068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -2651,7 +2647,7 @@
       </c>
       <c r="G66">
         <f t="shared" si="3"/>
-        <v>0.36000000000001364</v>
+        <v>1.0222098363871019</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -2678,7 +2674,7 @@
       </c>
       <c r="G67">
         <f t="shared" si="3"/>
-        <v>-1.2700000000000387</v>
+        <v>1.0011830431876039</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -2705,7 +2701,7 @@
       </c>
       <c r="G68">
         <f t="shared" si="3"/>
-        <v>5.3700000000000045</v>
+        <v>0.99582023120684138</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -2731,8 +2727,8 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <f t="shared" ref="G69:G100" si="7">IF(F69=1, C70-C69, 0)</f>
-        <v>-2.9099999999999682</v>
+        <f t="shared" si="3"/>
+        <v>1.0175554942601988</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -2758,8 +2754,8 @@
         <v>1</v>
       </c>
       <c r="G70">
-        <f t="shared" si="7"/>
-        <v>-3.8900000000000432</v>
+        <f t="shared" ref="G70:G100" si="7">F69*(1+D70)</f>
+        <v>0.99052495963942366</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -2786,7 +2782,7 @@
       </c>
       <c r="G71">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.98719218643120143</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -2840,7 +2836,7 @@
       </c>
       <c r="G73">
         <f t="shared" si="7"/>
-        <v>-5.0000000000011369E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2867,7 +2863,7 @@
       </c>
       <c r="G74">
         <f t="shared" si="7"/>
-        <v>1.2400000000000091</v>
+        <v>0.99983764388774699</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -2894,7 +2890,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="7"/>
-        <v>1.3000000000000114</v>
+        <v>1.0040186727664153</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -2921,7 +2917,7 @@
       </c>
       <c r="G76">
         <f t="shared" si="7"/>
-        <v>2.1899999999999977</v>
+        <v>1.0041958554924628</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -2948,7 +2944,7 @@
       </c>
       <c r="G77">
         <f t="shared" si="7"/>
-        <v>-1.9300000000000068</v>
+        <v>1.0070288342014466</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -2975,7 +2971,7 @@
       </c>
       <c r="G78">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.99380822840175753</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -3164,7 +3160,7 @@
       </c>
       <c r="G85">
         <f t="shared" si="7"/>
-        <v>0.98999999999995225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -3191,7 +3187,7 @@
       </c>
       <c r="G86">
         <f t="shared" si="7"/>
-        <v>0.78000000000002956</v>
+        <v>1.0032642592909946</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -3218,7 +3214,7 @@
       </c>
       <c r="G87">
         <f t="shared" si="7"/>
-        <v>0.52999999999997272</v>
+        <v>1.0025643568643696</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -3245,7 +3241,7 @@
       </c>
       <c r="G88">
         <f t="shared" si="7"/>
-        <v>0.65000000000003411</v>
+        <v>1.0017387029722613</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -3272,7 +3268,7 @@
       </c>
       <c r="G89">
         <f t="shared" si="7"/>
-        <v>-3.6899999999999977</v>
+        <v>1.0021282525263846</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -3299,7 +3295,7 @@
       </c>
       <c r="G90">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.98785749901186204</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -3407,7 +3403,7 @@
       </c>
       <c r="G94">
         <f t="shared" si="7"/>
-        <v>-5.7400000000000091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -3434,7 +3430,7 @@
       </c>
       <c r="G95">
         <f t="shared" si="7"/>
-        <v>5.9900000000000091</v>
+        <v>0.98084053542070393</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -3461,7 +3457,7 @@
       </c>
       <c r="G96">
         <f t="shared" si="7"/>
-        <v>1.5</v>
+        <v>1.0199856514436538</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -3488,7 +3484,7 @@
       </c>
       <c r="G97">
         <f t="shared" si="7"/>
-        <v>7.9599999999999795</v>
+        <v>1.0049428380200842</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -3515,7 +3511,7 @@
       </c>
       <c r="G98">
         <f t="shared" si="7"/>
-        <v>-9.0199999999999818</v>
+        <v>1.0258288206466695</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -3542,7 +3538,7 @@
       </c>
       <c r="G99">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>0.97068077441356149</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -3568,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="G100">
-        <f>0</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
